--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H2">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I2">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J2">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>6.175644886247813</v>
+        <v>29.76424028303811</v>
       </c>
       <c r="R2">
-        <v>6.175644886247813</v>
+        <v>267.878162547343</v>
       </c>
       <c r="S2">
-        <v>0.0005609672069301185</v>
+        <v>0.002064723421818173</v>
       </c>
       <c r="T2">
-        <v>0.0005609672069301185</v>
+        <v>0.00221942947064633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H3">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I3">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J3">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>38.08018182150398</v>
+        <v>137.9267174102822</v>
       </c>
       <c r="R3">
-        <v>38.08018182150398</v>
+        <v>1241.34045669254</v>
       </c>
       <c r="S3">
-        <v>0.003459028753963715</v>
+        <v>0.009567874779380654</v>
       </c>
       <c r="T3">
-        <v>0.003459028753963715</v>
+        <v>0.01028477859669537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H4">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I4">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J4">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>54.84595962204128</v>
+        <v>194.3484897583656</v>
       </c>
       <c r="R4">
-        <v>54.84595962204128</v>
+        <v>1749.13640782529</v>
       </c>
       <c r="S4">
-        <v>0.004981954977542723</v>
+        <v>0.01348181156257375</v>
       </c>
       <c r="T4">
-        <v>0.004981954977542723</v>
+        <v>0.01449197969252836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H5">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I5">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J5">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>58.14055124696175</v>
+        <v>193.0132146239582</v>
       </c>
       <c r="R5">
-        <v>58.14055124696175</v>
+        <v>1737.118931615624</v>
       </c>
       <c r="S5">
-        <v>0.005281220543463224</v>
+        <v>0.01338918451016572</v>
       </c>
       <c r="T5">
-        <v>0.005281220543463224</v>
+        <v>0.01439241226004752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H6">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I6">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J6">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>26.48792707525761</v>
+        <v>90.52662614639115</v>
       </c>
       <c r="R6">
-        <v>26.48792707525761</v>
+        <v>543.159756878347</v>
       </c>
       <c r="S6">
-        <v>0.002406041594435628</v>
+        <v>0.006279765366937583</v>
       </c>
       <c r="T6">
-        <v>0.002406041594435628</v>
+        <v>0.004500198001290403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H7">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J7">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>88.96168515706819</v>
+        <v>149.1808072121517</v>
       </c>
       <c r="R7">
-        <v>88.96168515706819</v>
+        <v>1342.627264909365</v>
       </c>
       <c r="S7">
-        <v>0.008080870737481483</v>
+        <v>0.01034856269831292</v>
       </c>
       <c r="T7">
-        <v>0.008080870737481483</v>
+        <v>0.01112396207102727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H8">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J8">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>548.5543952620026</v>
+        <v>691.2999909866334</v>
       </c>
       <c r="R8">
-        <v>548.5543952620026</v>
+        <v>6221.6999188797</v>
       </c>
       <c r="S8">
-        <v>0.04982816088480282</v>
+        <v>0.04795497111028903</v>
       </c>
       <c r="T8">
-        <v>0.04982816088480282</v>
+        <v>0.05154815169018879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H9">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J9">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>790.069552557741</v>
+        <v>974.0905296728833</v>
       </c>
       <c r="R9">
-        <v>790.069552557741</v>
+        <v>8766.81476705595</v>
       </c>
       <c r="S9">
-        <v>0.07176628811118783</v>
+        <v>0.06757194245381158</v>
       </c>
       <c r="T9">
-        <v>0.07176628811118783</v>
+        <v>0.07263498775964113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H10">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J10">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>837.5289561108757</v>
+        <v>967.3980214648133</v>
       </c>
       <c r="R10">
-        <v>837.5289561108757</v>
+        <v>8706.58219318332</v>
       </c>
       <c r="S10">
-        <v>0.07607728227360429</v>
+        <v>0.06710768808963125</v>
       </c>
       <c r="T10">
-        <v>0.07607728227360429</v>
+        <v>0.07213594764276646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H11">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J11">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N11">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O11">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P11">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q11">
-        <v>381.5651113910069</v>
+        <v>453.7268559280975</v>
       </c>
       <c r="R11">
-        <v>381.5651113910069</v>
+        <v>2722.361135568585</v>
       </c>
       <c r="S11">
-        <v>0.03465962158472522</v>
+        <v>0.03147469774582262</v>
       </c>
       <c r="T11">
-        <v>0.03465962158472522</v>
+        <v>0.02255536052870785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H12">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I12">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J12">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N12">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O12">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P12">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q12">
-        <v>106.4637100461447</v>
+        <v>226.4357007302539</v>
       </c>
       <c r="R12">
-        <v>106.4637100461447</v>
+        <v>2037.921306572285</v>
       </c>
       <c r="S12">
-        <v>0.009670674263832219</v>
+        <v>0.01570767774979956</v>
       </c>
       <c r="T12">
-        <v>0.009670674263832219</v>
+        <v>0.01688462606900715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H13">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I13">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J13">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N13">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P13">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q13">
-        <v>656.4751553278328</v>
+        <v>1049.297163617478</v>
       </c>
       <c r="R13">
-        <v>656.4751553278328</v>
+        <v>9443.674472557299</v>
       </c>
       <c r="S13">
-        <v>0.05963118687788044</v>
+        <v>0.07278897124758868</v>
       </c>
       <c r="T13">
-        <v>0.05963118687788044</v>
+        <v>0.07824291922966976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H14">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I14">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J14">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N14">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O14">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P14">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q14">
-        <v>945.505198235463</v>
+        <v>1478.533839460394</v>
       </c>
       <c r="R14">
-        <v>945.505198235463</v>
+        <v>13306.80455514355</v>
       </c>
       <c r="S14">
-        <v>0.08588534800198228</v>
+        <v>0.1025648032422423</v>
       </c>
       <c r="T14">
-        <v>0.08588534800198228</v>
+        <v>0.110249801286422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H15">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I15">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J15">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N15">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O15">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P15">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q15">
-        <v>1002.301606373674</v>
+        <v>1468.375543537098</v>
       </c>
       <c r="R15">
-        <v>1002.301606373674</v>
+        <v>13215.37989183388</v>
       </c>
       <c r="S15">
-        <v>0.09104447276122883</v>
+        <v>0.101860129737421</v>
       </c>
       <c r="T15">
-        <v>0.09104447276122883</v>
+        <v>0.1094923278508726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H16">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I16">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J16">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N16">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O16">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P16">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q16">
-        <v>456.6329573358974</v>
+        <v>688.6942126282107</v>
       </c>
       <c r="R16">
-        <v>456.6329573358974</v>
+        <v>4132.165275769265</v>
       </c>
       <c r="S16">
-        <v>0.04147843980462309</v>
+        <v>0.04777421018518092</v>
       </c>
       <c r="T16">
-        <v>0.04147843980462309</v>
+        <v>0.0342358977805923</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H17">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I17">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J17">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N17">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O17">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P17">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q17">
-        <v>143.7568518450129</v>
+        <v>211.2148612720562</v>
       </c>
       <c r="R17">
-        <v>143.7568518450129</v>
+        <v>1900.933751448506</v>
       </c>
       <c r="S17">
-        <v>0.01305821191826342</v>
+        <v>0.01465181932941904</v>
       </c>
       <c r="T17">
-        <v>0.01305821191826342</v>
+        <v>0.01574965405761831</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H18">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I18">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J18">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N18">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P18">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q18">
-        <v>886.431645144538</v>
+        <v>978.7641883849644</v>
       </c>
       <c r="R18">
-        <v>886.431645144538</v>
+        <v>8808.87769546468</v>
       </c>
       <c r="S18">
-        <v>0.08051937785777141</v>
+        <v>0.06789615071569413</v>
       </c>
       <c r="T18">
-        <v>0.08051937785777141</v>
+        <v>0.07298348836918792</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H19">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I19">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J19">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N19">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O19">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P19">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q19">
-        <v>1276.705937098302</v>
+        <v>1379.147893996131</v>
       </c>
       <c r="R19">
-        <v>1276.705937098302</v>
+        <v>12412.33104596518</v>
       </c>
       <c r="S19">
-        <v>0.1159701013897312</v>
+        <v>0.09567047342067621</v>
       </c>
       <c r="T19">
-        <v>0.1159701013897312</v>
+        <v>0.102838891609781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H20">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I20">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J20">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N20">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O20">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P20">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q20">
-        <v>1353.397542402258</v>
+        <v>1369.672431172556</v>
       </c>
       <c r="R20">
-        <v>1353.397542402258</v>
+        <v>12327.05188055301</v>
       </c>
       <c r="S20">
-        <v>0.1229364144493032</v>
+        <v>0.09501316754495556</v>
       </c>
       <c r="T20">
-        <v>0.1229364144493032</v>
+        <v>0.1021323349754213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H21">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I21">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J21">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N21">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O21">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P21">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q21">
-        <v>616.5867821705117</v>
+        <v>642.4006996689122</v>
       </c>
       <c r="R21">
-        <v>616.5867821705117</v>
+        <v>3854.404198013473</v>
       </c>
       <c r="S21">
-        <v>0.05600791033086319</v>
+        <v>0.04456286329453721</v>
       </c>
       <c r="T21">
-        <v>0.05600791033086319</v>
+        <v>0.03193458618465085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H22">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I22">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J22">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N22">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O22">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P22">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q22">
-        <v>24.68021938933798</v>
+        <v>48.03162083362717</v>
       </c>
       <c r="R22">
-        <v>24.68021938933798</v>
+        <v>288.1897250017631</v>
       </c>
       <c r="S22">
-        <v>0.002241837733916607</v>
+        <v>0.003331918153462675</v>
       </c>
       <c r="T22">
-        <v>0.002241837733916607</v>
+        <v>0.002387715231148536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H23">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I23">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J23">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N23">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P23">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q23">
-        <v>152.1828503827098</v>
+        <v>222.5772850400234</v>
       </c>
       <c r="R23">
-        <v>152.1828503827098</v>
+        <v>1335.46371024014</v>
       </c>
       <c r="S23">
-        <v>0.01382359091144594</v>
+        <v>0.01544002229577241</v>
       </c>
       <c r="T23">
-        <v>0.01382359091144594</v>
+        <v>0.01106461044566045</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H24">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I24">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J24">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N24">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O24">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P24">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q24">
-        <v>219.1852577380263</v>
+        <v>313.6271203596484</v>
       </c>
       <c r="R24">
-        <v>219.1852577380263</v>
+        <v>1881.76272215789</v>
       </c>
       <c r="S24">
-        <v>0.01990978174722478</v>
+        <v>0.02175608229762132</v>
       </c>
       <c r="T24">
-        <v>0.01990978174722478</v>
+        <v>0.01559081786512839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H25">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I25">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J25">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N25">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O25">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P25">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q25">
-        <v>232.3516955107648</v>
+        <v>311.4723390396973</v>
       </c>
       <c r="R25">
-        <v>232.3516955107648</v>
+        <v>1868.834034238184</v>
       </c>
       <c r="S25">
-        <v>0.02110576046015882</v>
+        <v>0.02160660670483307</v>
       </c>
       <c r="T25">
-        <v>0.02110576046015882</v>
+        <v>0.01548370084329682</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H26">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I26">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J26">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N26">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O26">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P26">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q26">
-        <v>105.8558034711309</v>
+        <v>146.0860596831318</v>
       </c>
       <c r="R26">
-        <v>105.8558034711309</v>
+        <v>584.3442387325271</v>
       </c>
       <c r="S26">
-        <v>0.009615454823637508</v>
+        <v>0.01013388234205257</v>
       </c>
       <c r="T26">
-        <v>0.009615454823637508</v>
+        <v>0.004841420488003226</v>
       </c>
     </row>
   </sheetData>
